--- a/lin_R1_by_R2 (100 by 1)100.xlsx
+++ b/lin_R1_by_R2 (100 by 1)100.xlsx
@@ -368,6 +368,158 @@
         <v>-0.75590752569516</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0570070979002617</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.3306930959934447</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.6752433538452025</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.1090064290950132</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.6550817872249857</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.342549932329409</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.208021050000366</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.297584633210235</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.6692639158786475</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.396105821661507</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.570070979002617</v>
+      </c>
+      <c r="L3" t="n">
+        <v>13.306930959934446</v>
+      </c>
+      <c r="M3" t="n">
+        <v>16.752433538452024</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21.09006429095013</v>
+      </c>
+      <c r="O3" t="n">
+        <v>26.55081787224986</v>
+      </c>
+      <c r="P3" t="n">
+        <v>33.42549932329408</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>42.080210500003666</v>
+      </c>
+      <c r="R3" t="n">
+        <v>52.97584633210235</v>
+      </c>
+      <c r="S3" t="n">
+        <v>66.69263915878648</v>
+      </c>
+      <c r="T3" t="n">
+        <v>83.96105821661507</v>
+      </c>
+      <c r="U3" t="n">
+        <v>105.70070979002617</v>
+      </c>
+      <c r="V3" t="n">
+        <v>133.06930959934445</v>
+      </c>
+      <c r="W3" t="n">
+        <v>167.52433538452024</v>
+      </c>
+      <c r="X3" t="n">
+        <v>210.90064290950133</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>265.5081787224986</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>334.2549932329409</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>420.80210500003665</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>529.7584633210236</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>666.9263915878647</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>839.6105821661507</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1057.0070979002617</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1330.6930959934446</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1675.2433538452026</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2109.006429095013</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2655.081787224986</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3342.5499323294084</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4208.021050000367</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>5297.584633210236</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>6669.263915878648</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>8396.105821661507</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>10570.070979002618</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>13306.930959934445</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>16752.433538452024</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>21090.064290950133</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>26550.817872249856</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>33425.49932329408</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>42080.21050000367</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>52975.84633210235</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>66692.63915878648</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>83961.05821661507</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -683,6 +835,158 @@
       </c>
       <c r="AX2" t="n">
         <v>-0.755912181701602</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0570070979002617</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.3306930959934447</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.6752433538452025</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.1090064290950132</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.6550817872249857</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.342549932329409</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.208021050000366</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.297584633210235</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.6692639158786475</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.396105821661507</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.570070979002617</v>
+      </c>
+      <c r="L3" t="n">
+        <v>13.306930959934446</v>
+      </c>
+      <c r="M3" t="n">
+        <v>16.752433538452024</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21.09006429095013</v>
+      </c>
+      <c r="O3" t="n">
+        <v>26.55081787224986</v>
+      </c>
+      <c r="P3" t="n">
+        <v>33.42549932329408</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>42.080210500003666</v>
+      </c>
+      <c r="R3" t="n">
+        <v>52.97584633210235</v>
+      </c>
+      <c r="S3" t="n">
+        <v>66.69263915878648</v>
+      </c>
+      <c r="T3" t="n">
+        <v>83.96105821661507</v>
+      </c>
+      <c r="U3" t="n">
+        <v>105.70070979002617</v>
+      </c>
+      <c r="V3" t="n">
+        <v>133.06930959934445</v>
+      </c>
+      <c r="W3" t="n">
+        <v>167.52433538452024</v>
+      </c>
+      <c r="X3" t="n">
+        <v>210.90064290950133</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>265.5081787224986</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>334.2549932329409</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>420.80210500003665</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>529.7584633210236</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>666.9263915878647</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>839.6105821661507</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1057.0070979002617</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1330.6930959934446</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1675.2433538452026</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2109.006429095013</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2655.081787224986</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3342.5499323294084</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4208.021050000367</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>5297.584633210236</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>6669.263915878648</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>8396.105821661507</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>10570.070979002618</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>13306.930959934445</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>16752.433538452024</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>21090.064290950133</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>26550.817872249856</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>33425.49932329408</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>42080.21050000367</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>52975.84633210235</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>66692.63915878648</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>83961.05821661507</v>
       </c>
     </row>
   </sheetData>
@@ -1002,6 +1306,158 @@
         <v>-0.7559128468888258</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0570070979002617</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.3306930959934447</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.6752433538452025</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.1090064290950132</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.6550817872249857</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.342549932329409</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.208021050000366</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.297584633210235</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.6692639158786475</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.396105821661507</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.570070979002617</v>
+      </c>
+      <c r="L3" t="n">
+        <v>13.306930959934446</v>
+      </c>
+      <c r="M3" t="n">
+        <v>16.752433538452024</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21.09006429095013</v>
+      </c>
+      <c r="O3" t="n">
+        <v>26.55081787224986</v>
+      </c>
+      <c r="P3" t="n">
+        <v>33.42549932329408</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>42.080210500003666</v>
+      </c>
+      <c r="R3" t="n">
+        <v>52.97584633210235</v>
+      </c>
+      <c r="S3" t="n">
+        <v>66.69263915878648</v>
+      </c>
+      <c r="T3" t="n">
+        <v>83.96105821661507</v>
+      </c>
+      <c r="U3" t="n">
+        <v>105.70070979002617</v>
+      </c>
+      <c r="V3" t="n">
+        <v>133.06930959934445</v>
+      </c>
+      <c r="W3" t="n">
+        <v>167.52433538452024</v>
+      </c>
+      <c r="X3" t="n">
+        <v>210.90064290950133</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>265.5081787224986</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>334.2549932329409</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>420.80210500003665</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>529.7584633210236</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>666.9263915878647</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>839.6105821661507</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1057.0070979002617</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1330.6930959934446</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1675.2433538452026</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2109.006429095013</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2655.081787224986</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3342.5499323294084</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4208.021050000367</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>5297.584633210236</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>6669.263915878648</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>8396.105821661507</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>10570.070979002618</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>13306.930959934445</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>16752.433538452024</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>21090.064290950133</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>26550.817872249856</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>33425.49932329408</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>42080.21050000367</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>52975.84633210235</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>66692.63915878648</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>83961.05821661507</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1319,6 +1775,158 @@
         <v>-0.755907525358501</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0570070979002617</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.3306930959934447</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.6752433538452025</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.1090064290950132</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.6550817872249857</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.342549932329409</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.208021050000366</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.297584633210235</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.6692639158786475</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.396105821661507</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.570070979002617</v>
+      </c>
+      <c r="L3" t="n">
+        <v>13.306930959934446</v>
+      </c>
+      <c r="M3" t="n">
+        <v>16.752433538452024</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21.09006429095013</v>
+      </c>
+      <c r="O3" t="n">
+        <v>26.55081787224986</v>
+      </c>
+      <c r="P3" t="n">
+        <v>33.42549932329408</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>42.080210500003666</v>
+      </c>
+      <c r="R3" t="n">
+        <v>52.97584633210235</v>
+      </c>
+      <c r="S3" t="n">
+        <v>66.69263915878648</v>
+      </c>
+      <c r="T3" t="n">
+        <v>83.96105821661507</v>
+      </c>
+      <c r="U3" t="n">
+        <v>105.70070979002617</v>
+      </c>
+      <c r="V3" t="n">
+        <v>133.06930959934445</v>
+      </c>
+      <c r="W3" t="n">
+        <v>167.52433538452024</v>
+      </c>
+      <c r="X3" t="n">
+        <v>210.90064290950133</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>265.5081787224986</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>334.2549932329409</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>420.80210500003665</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>529.7584633210236</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>666.9263915878647</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>839.6105821661507</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1057.0070979002617</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1330.6930959934446</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1675.2433538452026</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2109.006429095013</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2655.081787224986</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3342.5499323294084</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4208.021050000367</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>5297.584633210236</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>6669.263915878648</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>8396.105821661507</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>10570.070979002618</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>13306.930959934445</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>16752.433538452024</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>21090.064290950133</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>26550.817872249856</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>33425.49932329408</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>42080.21050000367</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>52975.84633210235</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>66692.63915878648</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>83961.05821661507</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (100 by 1)100.xlsx
+++ b/lin_R1_by_R2 (100 by 1)100.xlsx
@@ -66,458 +66,629 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>50.14913332972597</v>
+        <v>50.166664043806115</v>
       </c>
       <c r="B1" t="n">
-        <v>50.13888694395435</v>
+        <v>50.16666250971303</v>
       </c>
       <c r="C1" t="n">
-        <v>50.122660718221695</v>
+        <v>50.16666007833963</v>
       </c>
       <c r="D1" t="n">
-        <v>50.096976989977136</v>
+        <v>50.166656224873236</v>
       </c>
       <c r="E1" t="n">
-        <v>50.056353970150624</v>
+        <v>50.166650117542446</v>
       </c>
       <c r="F1" t="n">
-        <v>49.992178328233386</v>
+        <v>50.16664043808014</v>
       </c>
       <c r="G1" t="n">
-        <v>49.890984677852906</v>
+        <v>50.166625097178</v>
       </c>
       <c r="H1" t="n">
-        <v>49.731891267593845</v>
+        <v>50.16660078351623</v>
       </c>
       <c r="I1" t="n">
-        <v>49.48292836019788</v>
+        <v>50.16656224903354</v>
       </c>
       <c r="J1" t="n">
-        <v>49.0961453987938</v>
+        <v>50.16650117618096</v>
       </c>
       <c r="K1" t="n">
-        <v>48.50196201455833</v>
+        <v>50.16640438270166</v>
       </c>
       <c r="L1" t="n">
-        <v>47.60471867987004</v>
+        <v>50.16625097655329</v>
       </c>
       <c r="M1" t="n">
-        <v>46.28432442144637</v>
+        <v>50.16600784715216</v>
       </c>
       <c r="N1" t="n">
-        <v>44.412870112221505</v>
+        <v>50.16562252045216</v>
       </c>
       <c r="O1" t="n">
-        <v>41.896074535930666</v>
+        <v>50.16501183745792</v>
       </c>
       <c r="P1" t="n">
-        <v>38.73780163944646</v>
+        <v>50.164044017030314</v>
       </c>
       <c r="Q1" t="n">
-        <v>35.0953046607222</v>
+        <v>50.16251024280088</v>
       </c>
       <c r="R1" t="n">
-        <v>31.267196320449397</v>
+        <v>50.16007967026495</v>
       </c>
       <c r="S1" t="n">
-        <v>27.589180384741145</v>
+        <v>50.15622821523225</v>
       </c>
       <c r="T1" t="n">
-        <v>24.300292282558306</v>
+        <v>50.15012593556452</v>
       </c>
       <c r="U1" t="n">
-        <v>21.47807424473124</v>
+        <v>50.140459156360905</v>
       </c>
       <c r="V1" t="n">
-        <v>19.07224719601636</v>
+        <v>50.12515009385327</v>
       </c>
       <c r="W1" t="n">
-        <v>16.985813558165745</v>
+        <v>50.10091633452875</v>
       </c>
       <c r="X1" t="n">
-        <v>15.13951874429602</v>
+        <v>50.06258225943803</v>
       </c>
       <c r="Y1" t="n">
-        <v>13.490794671674163</v>
+        <v>50.00201162467507</v>
       </c>
       <c r="Z1" t="n">
-        <v>12.019220261479733</v>
+        <v>49.90647497440265</v>
       </c>
       <c r="AA1" t="n">
-        <v>10.708634414034721</v>
+        <v>49.75620734708827</v>
       </c>
       <c r="AB1" t="n">
-        <v>9.541875345924216</v>
+        <v>49.52088894066482</v>
       </c>
       <c r="AC1" t="n">
-        <v>8.502730861388683</v>
+        <v>49.154899637623366</v>
       </c>
       <c r="AD1" t="n">
-        <v>7.577035076303528</v>
+        <v>48.59170086345019</v>
       </c>
       <c r="AE1" t="n">
-        <v>6.752322256763431</v>
+        <v>47.73904041169186</v>
       </c>
       <c r="AF1" t="n">
-        <v>6.017514854045229</v>
+        <v>46.479418938086546</v>
       </c>
       <c r="AG1" t="n">
-        <v>5.362768211242243</v>
+        <v>44.684210558831275</v>
       </c>
       <c r="AH1" t="n">
-        <v>4.779329592443435</v>
+        <v>42.25163155555595</v>
       </c>
       <c r="AI1" t="n">
-        <v>4.259412373219951</v>
+        <v>39.169346173150586</v>
       </c>
       <c r="AJ1" t="n">
-        <v>3.7960865351506765</v>
+        <v>35.57390890139903</v>
       </c>
       <c r="AK1" t="n">
-        <v>3.3831824590461648</v>
+        <v>31.750116625055675</v>
       </c>
       <c r="AL1" t="n">
-        <v>3.015206141162849</v>
+        <v>28.036805842626094</v>
       </c>
       <c r="AM1" t="n">
-        <v>2.6872642837803116</v>
+        <v>24.690982076807632</v>
       </c>
       <c r="AN1" t="n">
-        <v>2.3949979787834734</v>
+        <v>21.810540854135763</v>
       </c>
       <c r="AO1" t="n">
-        <v>2.134523909088177</v>
+        <v>19.357178443780754</v>
       </c>
       <c r="AP1" t="n">
-        <v>1.902382154622792</v>
+        <v>17.235435042730675</v>
       </c>
       <c r="AQ1" t="n">
-        <v>1.6954898192660663</v>
+        <v>15.361788632522584</v>
       </c>
       <c r="AR1" t="n">
-        <v>1.5110998009439176</v>
+        <v>13.689422741841325</v>
       </c>
       <c r="AS1" t="n">
-        <v>1.346764114803687</v>
+        <v>12.196295011887734</v>
       </c>
       <c r="AT1" t="n">
-        <v>1.2003012531178259</v>
+        <v>10.866265385735453</v>
       </c>
       <c r="AU1" t="n">
-        <v>1.0697671282723313</v>
+        <v>9.682232617812483</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.9534291990307928</v>
+        <v>8.62775429911154</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.8497434268468967</v>
+        <v>7.688414419438862</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.757333749556004</v>
+        <v>6.851555260202717</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>6.105932956350667</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>5.441554703464374</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>4.84953685263565</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>4.321976809937872</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>3.8518416731295138</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>3.4328704533800756</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>3.0594879370069212</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>2.7267286015405374</v>
+      </c>
+      <c r="BG1" t="n">
+        <v>2.4301692745355488</v>
+      </c>
+      <c r="BH1" t="n">
+        <v>2.1658694366249196</v>
+      </c>
+      <c r="BI1" t="n">
+        <v>1.9303182370208</v>
+      </c>
+      <c r="BJ1" t="n">
+        <v>1.7203874229064282</v>
+      </c>
+      <c r="BK1" t="n">
+        <v>1.533289492626771</v>
+      </c>
+      <c r="BL1" t="n">
+        <v>1.366540472335562</v>
+      </c>
+      <c r="BM1" t="n">
+        <v>1.2179267910771736</v>
+      </c>
+      <c r="BN1" t="n">
+        <v>1.0854757932484986</v>
+      </c>
+      <c r="BO1" t="n">
+        <v>0.967429482245569</v>
+      </c>
+      <c r="BP1" t="n">
+        <v>0.8622211365253275</v>
+      </c>
+      <c r="BQ1" t="n">
+        <v>0.7684544805758542</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-456.3786673096927</v>
+        <v>-37259.10638540502</v>
       </c>
       <c r="B2" t="n">
-        <v>-362.88224192841415</v>
+        <v>-29595.964705515613</v>
       </c>
       <c r="C2" t="n">
-        <v>-288.7102617092572</v>
+        <v>-23508.916068425562</v>
       </c>
       <c r="D2" t="n">
-        <v>-229.9124436063005</v>
+        <v>-18673.802937674016</v>
       </c>
       <c r="E2" t="n">
-        <v>-183.35688430354602</v>
+        <v>-14833.13790771792</v>
       </c>
       <c r="F2" t="n">
-        <v>-146.562931468889</v>
+        <v>-11782.391560653632</v>
       </c>
       <c r="G2" t="n">
-        <v>-117.5684060107467</v>
+        <v>-9359.10052889196</v>
       </c>
       <c r="H2" t="n">
-        <v>-94.8237994230588</v>
+        <v>-7434.215728405802</v>
       </c>
       <c r="I2" t="n">
-        <v>-77.10725239520066</v>
+        <v>-5905.230024420711</v>
       </c>
       <c r="J2" t="n">
-        <v>-63.45481644424528</v>
+        <v>-4690.719352683747</v>
       </c>
       <c r="K2" t="n">
-        <v>-53.10076394713245</v>
+        <v>-3726.00659110724</v>
       </c>
       <c r="L2" t="n">
-        <v>-45.42284753853263</v>
+        <v>-2959.717267130528</v>
       </c>
       <c r="M2" t="n">
-        <v>-39.888452188591764</v>
+        <v>-2351.0436796368203</v>
       </c>
       <c r="N2" t="n">
-        <v>-36.001892460059736</v>
+        <v>-1867.5717399004343</v>
       </c>
       <c r="O2" t="n">
-        <v>-33.26356725387805</v>
+        <v>-1483.5548028398632</v>
       </c>
       <c r="P2" t="n">
-        <v>-31.16579805653666</v>
+        <v>-1178.5425636357754</v>
       </c>
       <c r="Q2" t="n">
-        <v>-29.249694483476</v>
+        <v>-936.2920031387584</v>
       </c>
       <c r="R2" t="n">
-        <v>-27.206842537650477</v>
+        <v>-743.9023852998365</v>
       </c>
       <c r="S2" t="n">
-        <v>-24.949367966948095</v>
+        <v>-591.1282408098474</v>
       </c>
       <c r="T2" t="n">
-        <v>-22.576412048974934</v>
+        <v>-469.8337482863398</v>
       </c>
       <c r="U2" t="n">
-        <v>-20.257279679774246</v>
+        <v>-373.5594517736718</v>
       </c>
       <c r="V2" t="n">
-        <v>-18.12077891792338</v>
+        <v>-297.178230668365</v>
       </c>
       <c r="W2" t="n">
-        <v>-16.212651496171908</v>
+        <v>-236.62218137976504</v>
       </c>
       <c r="X2" t="n">
-        <v>-14.516847677121133</v>
+        <v>-188.66582707069753</v>
       </c>
       <c r="Y2" t="n">
-        <v>-12.998989273071347</v>
+        <v>-150.75403403604943</v>
       </c>
       <c r="Z2" t="n">
-        <v>-11.633474934789612</v>
+        <v>-120.86532240917855</v>
       </c>
       <c r="AA2" t="n">
-        <v>-10.405318134981773</v>
+        <v>-97.40301027628712</v>
       </c>
       <c r="AB2" t="n">
-        <v>-9.302750474855557</v>
+        <v>-79.10787486617428</v>
       </c>
       <c r="AC2" t="n">
-        <v>-8.314050924439616</v>
+        <v>-64.98677063587077</v>
       </c>
       <c r="AD2" t="n">
-        <v>-7.428065170006189</v>
+        <v>-54.25195412051361</v>
       </c>
       <c r="AE2" t="n">
-        <v>-6.63462427696651</v>
+        <v>-46.26598159552313</v>
       </c>
       <c r="AF2" t="n">
-        <v>-5.924467851939406</v>
+        <v>-40.48787372691431</v>
       </c>
       <c r="AG2" t="n">
-        <v>-5.28916995288731</v>
+        <v>-36.419960902822304</v>
       </c>
       <c r="AH2" t="n">
-        <v>-4.721087298105397</v>
+        <v>-33.56443042839021</v>
       </c>
       <c r="AI2" t="n">
-        <v>-4.2133027244501635</v>
+        <v>-31.412852907383773</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-3.7595685482240033</v>
+        <v>-29.494932320121354</v>
       </c>
       <c r="AK2" t="n">
-        <v>-3.354251344665887</v>
+        <v>-27.477730303693896</v>
       </c>
       <c r="AL2" t="n">
-        <v>-2.992278964837967</v>
+        <v>-25.244881585527082</v>
       </c>
       <c r="AM2" t="n">
-        <v>-2.6690903606874645</v>
+        <v>-22.877358369878174</v>
       </c>
       <c r="AN2" t="n">
-        <v>-2.3805885489622916</v>
+        <v>-20.542707904077826</v>
       </c>
       <c r="AO2" t="n">
-        <v>-2.123096871515229</v>
+        <v>-18.378840098693235</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.893318584291272</v>
+        <v>-16.441827042827143</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.6882997190585778</v>
+        <v>-14.721040808696497</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.5053951017549208</v>
+        <v>-13.1823513436517</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.3422373721489518</v>
+        <v>-11.798522823836244</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.1967088259127263</v>
+        <v>-10.55363506607958</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.0669158879905287</v>
+        <v>-9.43581512000454</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.9511660221475638</v>
+        <v>-8.433334368404166</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.8479468833839179</v>
+        <v>-7.53492591639462</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.75590752569516</v>
+        <v>-6.730297314125854</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-6.010078517451627</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-5.365740684426657</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-4.78954451935991</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-4.274484073250414</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-3.8142299871518235</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-3.4030740442956717</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-3.035875866116983</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>-2.7080123592703744</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-2.4153302703260016</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>-2.15410202471503</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1.9209848958203946</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>-1.7129834577286422</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>-1.5274152118443678</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-1.3618792360659873</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1.2142276799019014</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>-1.0825399154465938</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>-0.9650991492424867</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>-0.8603713012313785</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>-0.7669859623725651</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0570070979002617</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.3306930959934447</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>1.6752433538452025</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1090064290950132</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>2.6550817872249857</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>3.342549932329409</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>4.208021050000366</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>5.297584633210235</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6692639158786475</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>8.396105821661507</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>10.570070979002617</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>13.306930959934446</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>16.752433538452024</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>21.09006429095013</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>26.55081787224986</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>33.42549932329408</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>42.080210500003666</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>52.97584633210235</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>66.69263915878648</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>83.96105821661507</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>105.70070979002617</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>133.06930959934445</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>167.52433538452024</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>210.90064290950133</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>265.5081787224986</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>334.2549932329409</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>420.80210500003665</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>529.7584633210236</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>666.9263915878647</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>839.6105821661507</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1057.0070979002617</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1330.6930959934446</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>1675.2433538452026</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2109.006429095013</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>2655.081787224986</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3342.5499323294084</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>4208.021050000367</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>5297.584633210236</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>6669.263915878648</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>8396.105821661507</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>10570.070979002618</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>13306.930959934445</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16752.433538452024</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>21090.064290950133</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>26550.817872249856</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>33425.49932329408</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>42080.21050000367</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>52975.84633210235</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>66692.63915878648</v>
+        <v>#NUM!</v>
       </c>
       <c r="AX3" t="n">
-        <v>83961.05821661507</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -535,458 +706,629 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>50.38746080570925</v>
+        <v>50.16670156183466</v>
       </c>
       <c r="B1" t="n">
-        <v>50.50579528823813</v>
+        <v>50.16672197150642</v>
       </c>
       <c r="C1" t="n">
-        <v>50.678862413742806</v>
+        <v>50.166754318241324</v>
       </c>
       <c r="D1" t="n">
-        <v>50.921385612319106</v>
+        <v>50.16680558331905</v>
       </c>
       <c r="E1" t="n">
-        <v>51.24052824389494</v>
+        <v>50.16688683037387</v>
       </c>
       <c r="F1" t="n">
-        <v>51.62400162907399</v>
+        <v>50.167015591702565</v>
       </c>
       <c r="G1" t="n">
-        <v>52.02758360025433</v>
+        <v>50.16721964814071</v>
       </c>
       <c r="H1" t="n">
-        <v>52.37079413459995</v>
+        <v>50.16754301432212</v>
       </c>
       <c r="I1" t="n">
-        <v>52.545993992669075</v>
+        <v>50.16805541101672</v>
       </c>
       <c r="J1" t="n">
-        <v>52.432965342601875</v>
+        <v>50.1688672434935</v>
       </c>
       <c r="K1" t="n">
-        <v>51.90426462620757</v>
+        <v>50.17015325463494</v>
       </c>
       <c r="L1" t="n">
-        <v>50.818926001980685</v>
+        <v>50.17218979706502</v>
       </c>
       <c r="M1" t="n">
-        <v>49.02228433829935</v>
+        <v>50.175413365960424</v>
       </c>
       <c r="N1" t="n">
-        <v>46.38202520677913</v>
+        <v>50.180512019440215</v>
       </c>
       <c r="O1" t="n">
-        <v>42.88224771193342</v>
+        <v>50.18856691361441</v>
       </c>
       <c r="P1" t="n">
-        <v>38.738910558296276</v>
+        <v>50.201268304334185</v>
       </c>
       <c r="Q1" t="n">
-        <v>34.40282409560688</v>
+        <v>50.22123744795788</v>
       </c>
       <c r="R1" t="n">
-        <v>30.35388280111368</v>
+        <v>50.25248718703448</v>
       </c>
       <c r="S1" t="n">
-        <v>26.848880531212707</v>
+        <v>50.30103403972424</v>
       </c>
       <c r="T1" t="n">
-        <v>23.875090605529586</v>
+        <v>50.37559712221088</v>
       </c>
       <c r="U1" t="n">
-        <v>21.296472278453397</v>
+        <v>50.48811451600258</v>
       </c>
       <c r="V1" t="n">
-        <v>19.001012373404123</v>
+        <v>50.65338134159433</v>
       </c>
       <c r="W1" t="n">
-        <v>16.941547529488115</v>
+        <v>50.88645808102743</v>
       </c>
       <c r="X1" t="n">
-        <v>15.100831632485253</v>
+        <v>51.19604136100123</v>
       </c>
       <c r="Y1" t="n">
-        <v>13.4601579376452</v>
+        <v>51.573056619150115</v>
       </c>
       <c r="Z1" t="n">
-        <v>11.99773000949596</v>
+        <v>51.977824759042576</v>
       </c>
       <c r="AA1" t="n">
-        <v>10.693926096581645</v>
+        <v>52.33421718378888</v>
       </c>
       <c r="AB1" t="n">
-        <v>9.53163201909999</v>
+        <v>52.53718908279955</v>
       </c>
       <c r="AC1" t="n">
-        <v>8.495546580936988</v>
+        <v>52.46751948420661</v>
       </c>
       <c r="AD1" t="n">
-        <v>7.571998179215198</v>
+        <v>51.99888163594692</v>
       </c>
       <c r="AE1" t="n">
-        <v>6.7487879326187725</v>
+        <v>50.99242588927099</v>
       </c>
       <c r="AF1" t="n">
-        <v>6.015032167891374</v>
+        <v>49.29429159029153</v>
       </c>
       <c r="AG1" t="n">
-        <v>5.361022725313633</v>
+        <v>46.7653628891523</v>
       </c>
       <c r="AH1" t="n">
-        <v>4.778101443453075</v>
+        <v>43.36812516016032</v>
       </c>
       <c r="AI1" t="n">
-        <v>4.2585476293002085</v>
+        <v>39.28503732138709</v>
       </c>
       <c r="AJ1" t="n">
-        <v>3.795477291126198</v>
+        <v>34.94454341139815</v>
       </c>
       <c r="AK1" t="n">
-        <v>3.3827529901770155</v>
+        <v>30.838834432316684</v>
       </c>
       <c r="AL1" t="n">
-        <v>3.0149032535110534</v>
+        <v>27.26105857572321</v>
       </c>
       <c r="AM1" t="n">
-        <v>2.6870505777040283</v>
+        <v>24.22675278834923</v>
       </c>
       <c r="AN1" t="n">
-        <v>2.3948471388445047</v>
+        <v>21.60566802113007</v>
       </c>
       <c r="AO1" t="n">
-        <v>2.1344174062364414</v>
+        <v>19.278114667204694</v>
       </c>
       <c r="AP1" t="n">
-        <v>1.9023069343389232</v>
+        <v>17.18989983122373</v>
       </c>
       <c r="AQ1" t="n">
-        <v>1.6954366790997148</v>
+        <v>15.322384959948344</v>
       </c>
       <c r="AR1" t="n">
-        <v>1.5110622507543507</v>
+        <v>13.657595315596982</v>
       </c>
       <c r="AS1" t="n">
-        <v>1.3467375753967246</v>
+        <v>12.173747037673607</v>
       </c>
       <c r="AT1" t="n">
-        <v>1.2002824923743562</v>
+        <v>10.850847102682618</v>
       </c>
       <c r="AU1" t="n">
-        <v>1.0697538641143847</v>
+        <v>9.671516899107514</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.9534198196921561</v>
+        <v>8.620239873078145</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.8497367936845621</v>
+        <v>7.6831459894925205</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.757329057980629</v>
+        <v>6.847859039720328</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>6.103336859914187</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>5.4397296751706135</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>4.8482528573975445</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>4.321072819872581</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>3.851204825781153</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>3.4324215556974007</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>3.0591713652894814</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>2.726505251946705</v>
+      </c>
+      <c r="BG1" t="n">
+        <v>2.430011635073744</v>
+      </c>
+      <c r="BH1" t="n">
+        <v>2.16575813733852</v>
+      </c>
+      <c r="BI1" t="n">
+        <v>1.9302396319352628</v>
+      </c>
+      <c r="BJ1" t="n">
+        <v>1.720331893264438</v>
+      </c>
+      <c r="BK1" t="n">
+        <v>1.5332502550720046</v>
+      </c>
+      <c r="BL1" t="n">
+        <v>1.3665127410359814</v>
+      </c>
+      <c r="BM1" t="n">
+        <v>1.2179071882156078</v>
+      </c>
+      <c r="BN1" t="n">
+        <v>1.0854619339705411</v>
+      </c>
+      <c r="BO1" t="n">
+        <v>0.9674196822567828</v>
+      </c>
+      <c r="BP1" t="n">
+        <v>0.8622142059821616</v>
+      </c>
+      <c r="BQ1" t="n">
+        <v>0.7684495787330998</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-455.54645869330017</v>
+        <v>-37259.09552948614</v>
       </c>
       <c r="B2" t="n">
-        <v>-361.8724371968355</v>
+        <v>-29595.951038802184</v>
       </c>
       <c r="C2" t="n">
-        <v>-287.50939110661193</v>
+        <v>-23508.898863209786</v>
       </c>
       <c r="D2" t="n">
-        <v>-228.52676245764314</v>
+        <v>-18673.78127790402</v>
       </c>
       <c r="E2" t="n">
-        <v>-181.82699577155515</v>
+        <v>-14833.110640308281</v>
       </c>
       <c r="F2" t="n">
-        <v>-144.9774815394903</v>
+        <v>-11782.357234266146</v>
       </c>
       <c r="G2" t="n">
-        <v>-116.0677220571062</v>
+        <v>-9359.057317019211</v>
       </c>
       <c r="H2" t="n">
-        <v>-93.58518350490863</v>
+        <v>-7434.161332846249</v>
       </c>
       <c r="I2" t="n">
-        <v>-76.31420829540941</v>
+        <v>-5905.16155437344</v>
       </c>
       <c r="J2" t="n">
-        <v>-63.26430181958282</v>
+        <v>-4690.6331737585015</v>
       </c>
       <c r="K2" t="n">
-        <v>-53.62045121269822</v>
+        <v>-3725.8981376709517</v>
       </c>
       <c r="L2" t="n">
-        <v>-46.69514398923614</v>
+        <v>-2959.58081090489</v>
       </c>
       <c r="M2" t="n">
-        <v>-41.86647636556835</v>
+        <v>-2350.872047996077</v>
       </c>
       <c r="N2" t="n">
-        <v>-38.50869754160662</v>
+        <v>-1867.3559802919021</v>
       </c>
       <c r="O2" t="n">
-        <v>-35.95802160480768</v>
+        <v>-1483.2837979590797</v>
       </c>
       <c r="P2" t="n">
-        <v>-33.586781256903635</v>
+        <v>-1178.2026208509799</v>
       </c>
       <c r="Q2" t="n">
-        <v>-30.995744531430233</v>
+        <v>-935.8664812420533</v>
       </c>
       <c r="R2" t="n">
-        <v>-28.152129009906673</v>
+        <v>-743.3714995208089</v>
       </c>
       <c r="S2" t="n">
-        <v>-25.281637223208072</v>
+        <v>-590.4693304440304</v>
       </c>
       <c r="T2" t="n">
-        <v>-22.615774031263904</v>
+        <v>-469.02253271088205</v>
       </c>
       <c r="U2" t="n">
-        <v>-20.244897564077608</v>
+        <v>-372.5731478955802</v>
       </c>
       <c r="V2" t="n">
-        <v>-18.14284909672799</v>
+        <v>-296.0017473537302</v>
       </c>
       <c r="W2" t="n">
-        <v>-16.25694546965092</v>
+        <v>-235.2585201473933</v>
       </c>
       <c r="X2" t="n">
-        <v>-14.556438572409421</v>
+        <v>-187.1503918636012</v>
       </c>
       <c r="Y2" t="n">
-        <v>-13.026085192545093</v>
+        <v>-149.16887468102894</v>
       </c>
       <c r="Z2" t="n">
-        <v>-11.651590003798018</v>
+        <v>-119.34461627559575</v>
       </c>
       <c r="AA2" t="n">
-        <v>-10.418089779304166</v>
+        <v>-96.12085084134786</v>
       </c>
       <c r="AB2" t="n">
-        <v>-9.311897488822707</v>
+        <v>-78.24891300972547</v>
       </c>
       <c r="AC2" t="n">
-        <v>-8.320556673420173</v>
+        <v>-64.7128310315583</v>
       </c>
       <c r="AD2" t="n">
-        <v>-7.432680557590837</v>
+        <v>-54.67785075696724</v>
       </c>
       <c r="AE2" t="n">
-        <v>-6.6378982409691</v>
+        <v>-47.44339172033805</v>
       </c>
       <c r="AF2" t="n">
-        <v>-5.926789208049274</v>
+        <v>-42.38316412438337</v>
       </c>
       <c r="AG2" t="n">
-        <v>-5.290815277744987</v>
+        <v>-38.87518874340578</v>
       </c>
       <c r="AH2" t="n">
-        <v>-4.722253157200855</v>
+        <v>-36.25932034434622</v>
       </c>
       <c r="AI2" t="n">
-        <v>-4.214128670204635</v>
+        <v>-33.89427861416607</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-3.7601535925289546</v>
+        <v>-31.340582064041573</v>
       </c>
       <c r="AK2" t="n">
-        <v>-3.35466570048078</v>
+        <v>-28.5194198407023</v>
       </c>
       <c r="AL2" t="n">
-        <v>-2.99257240362756</v>
+        <v>-25.637422957509962</v>
       </c>
       <c r="AM2" t="n">
-        <v>-2.6692981533239117</v>
+        <v>-22.93739095460636</v>
       </c>
       <c r="AN2" t="n">
-        <v>-2.380735684760837</v>
+        <v>-20.529070598621203</v>
       </c>
       <c r="AO2" t="n">
-        <v>-2.12320105227556</v>
+        <v>-18.39611092390746</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.8933923478479608</v>
+        <v>-16.48507715461309</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.6883519447945836</v>
+        <v>-14.762064748537219</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.5054320776077437</v>
+        <v>-13.21092070897533</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.3422635506454583</v>
+        <v>-11.817526653743029</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.1967273597609192</v>
+        <v>-10.5669600074554</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.0669290094486588</v>
+        <v>-9.445360262180971</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.9511753117072543</v>
+        <v>-8.440128778211484</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.8479534600444955</v>
+        <v>-7.539746337193897</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.755912181701602</v>
+        <v>-6.733716846167207</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-6.012503226520494</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-5.367459330400074</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-4.790762369581852</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-4.275346871652934</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-3.8148411461998397</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-3.403506901702038</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-3.0361824106119943</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>-2.7082294342195876</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-2.4154839798121324</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>-2.154210860571222</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1.921061955643546</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>-1.7130380174376283</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>-1.5274538402432987</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-1.3619065845979574</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1.2142470421400222</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>-1.0825536233979727</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>-0.9651088540288761</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>-0.8603781718618395</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>-0.7669908265003986</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0570070979002617</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.3306930959934447</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>1.6752433538452025</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1090064290950132</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>2.6550817872249857</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>3.342549932329409</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>4.208021050000366</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>5.297584633210235</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6692639158786475</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>8.396105821661507</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>10.570070979002617</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>13.306930959934446</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>16.752433538452024</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>21.09006429095013</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>26.55081787224986</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>33.42549932329408</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>42.080210500003666</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>52.97584633210235</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>66.69263915878648</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>83.96105821661507</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>105.70070979002617</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>133.06930959934445</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>167.52433538452024</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>210.90064290950133</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>265.5081787224986</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>334.2549932329409</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>420.80210500003665</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>529.7584633210236</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>666.9263915878647</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>839.6105821661507</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1057.0070979002617</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1330.6930959934446</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>1675.2433538452026</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2109.006429095013</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>2655.081787224986</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3342.5499323294084</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>4208.021050000367</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>5297.584633210236</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>6669.263915878648</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>8396.105821661507</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>10570.070979002618</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>13306.930959934445</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16752.433538452024</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>21090.064290950133</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>26550.817872249856</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>33425.49932329408</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>42080.21050000367</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>52975.84633210235</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>66692.63915878648</v>
+        <v>#NUM!</v>
       </c>
       <c r="AX3" t="n">
-        <v>83961.05821661507</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -1004,458 +1346,629 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>56.475273414134044</v>
+        <v>56.70063143909424</v>
       </c>
       <c r="B1" t="n">
-        <v>56.35234395266473</v>
+        <v>56.70061083494736</v>
       </c>
       <c r="C1" t="n">
-        <v>56.169694264978624</v>
+        <v>56.70057817990849</v>
       </c>
       <c r="D1" t="n">
-        <v>55.907452920833144</v>
+        <v>56.700526425996756</v>
       </c>
       <c r="E1" t="n">
-        <v>55.5489489927709</v>
+        <v>56.70044440367694</v>
       </c>
       <c r="F1" t="n">
-        <v>55.0896433611635</v>
+        <v>56.700314412341804</v>
       </c>
       <c r="G1" t="n">
-        <v>54.54308428763571</v>
+        <v>56.70010840322444</v>
       </c>
       <c r="H1" t="n">
-        <v>53.93007862135571</v>
+        <v>56.69978193409263</v>
       </c>
       <c r="I1" t="n">
-        <v>53.24576064956132</v>
+        <v>56.69926459905883</v>
       </c>
       <c r="J1" t="n">
-        <v>52.427614395938946</v>
+        <v>56.69844488839766</v>
       </c>
       <c r="K1" t="n">
-        <v>51.35501757248915</v>
+        <v>56.69714626209255</v>
       </c>
       <c r="L1" t="n">
-        <v>49.87935786554428</v>
+        <v>56.69508940228678</v>
       </c>
       <c r="M1" t="n">
-        <v>47.865218602678404</v>
+        <v>56.69183282164693</v>
       </c>
       <c r="N1" t="n">
-        <v>45.23358372052133</v>
+        <v>56.68667981995624</v>
       </c>
       <c r="O1" t="n">
-        <v>41.999670150542656</v>
+        <v>56.67853372966988</v>
       </c>
       <c r="P1" t="n">
-        <v>38.29096359144861</v>
+        <v>56.66567522822963</v>
       </c>
       <c r="Q1" t="n">
-        <v>34.34202009118097</v>
+        <v>56.6454260253709</v>
       </c>
       <c r="R1" t="n">
-        <v>30.460925714737286</v>
+        <v>56.61365647057794</v>
       </c>
       <c r="S1" t="n">
-        <v>26.93152302970679</v>
+        <v>56.56410283040247</v>
       </c>
       <c r="T1" t="n">
-        <v>23.884267036886058</v>
+        <v>56.48751380947047</v>
       </c>
       <c r="U1" t="n">
-        <v>21.27350993055858</v>
+        <v>56.37080944241106</v>
       </c>
       <c r="V1" t="n">
-        <v>18.98364068792226</v>
+        <v>56.196808744162844</v>
       </c>
       <c r="W1" t="n">
-        <v>16.934205639519096</v>
+        <v>55.94571036046695</v>
       </c>
       <c r="X1" t="n">
-        <v>15.096577446444256</v>
+        <v>55.59999113483124</v>
       </c>
       <c r="Y1" t="n">
-        <v>13.456695939352562</v>
+        <v>55.15306899918281</v>
       </c>
       <c r="Z1" t="n">
-        <v>11.995206260757387</v>
+        <v>54.61631122492481</v>
       </c>
       <c r="AA1" t="n">
-        <v>10.692150369095804</v>
+        <v>54.01106383840874</v>
       </c>
       <c r="AB1" t="n">
-        <v>9.53036630366632</v>
+        <v>53.33786639980764</v>
       </c>
       <c r="AC1" t="n">
-        <v>8.494645733251623</v>
+        <v>52.54233526197793</v>
       </c>
       <c r="AD1" t="n">
-        <v>7.571357518297438</v>
+        <v>51.50997684341343</v>
       </c>
       <c r="AE1" t="n">
-        <v>6.748332517141086</v>
+        <v>50.09353038313048</v>
       </c>
       <c r="AF1" t="n">
-        <v>6.014708580643517</v>
+        <v>48.153528383244115</v>
       </c>
       <c r="AG1" t="n">
-        <v>5.36079289760891</v>
+        <v>45.60147606898327</v>
       </c>
       <c r="AH1" t="n">
-        <v>4.777938266244763</v>
+        <v>42.43913373387585</v>
       </c>
       <c r="AI1" t="n">
-        <v>4.258431810364262</v>
+        <v>38.77964014371719</v>
       </c>
       <c r="AJ1" t="n">
-        <v>3.7953951089637523</v>
+        <v>34.84499391724285</v>
       </c>
       <c r="AK1" t="n">
-        <v>3.382694690411293</v>
+        <v>30.937736638367706</v>
       </c>
       <c r="AL1" t="n">
-        <v>3.014861905066698</v>
+        <v>27.352496345904107</v>
       </c>
       <c r="AM1" t="n">
-        <v>2.6870212576186483</v>
+        <v>24.243763701780097</v>
       </c>
       <c r="AN1" t="n">
-        <v>2.394826351721257</v>
+        <v>21.583990162031466</v>
       </c>
       <c r="AO1" t="n">
-        <v>2.134402671070173</v>
+        <v>19.259225554569017</v>
       </c>
       <c r="AP1" t="n">
-        <v>1.902296490632666</v>
+        <v>17.181696563137656</v>
       </c>
       <c r="AQ1" t="n">
-        <v>1.695429277938465</v>
+        <v>15.317979461074101</v>
       </c>
       <c r="AR1" t="n">
-        <v>1.5110570063445368</v>
+        <v>13.654026927711767</v>
       </c>
       <c r="AS1" t="n">
-        <v>1.3467338596150111</v>
+        <v>12.171107683032606</v>
       </c>
       <c r="AT1" t="n">
-        <v>1.2002798598931166</v>
+        <v>10.848992542924844</v>
       </c>
       <c r="AU1" t="n">
-        <v>1.0697519992550129</v>
+        <v>9.670195752081549</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.953418498711876</v>
+        <v>8.619299318257802</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.8497358580217853</v>
+        <v>7.6824770611469795</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.7573283952788972</v>
+        <v>6.847383500543656</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>6.1029989560373</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>5.43948966759917</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>4.8480824452411175</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>4.320951861166516</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>3.8511189936661654</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>3.4323606648324216</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>3.059128177978374</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>2.7264746271929097</v>
+      </c>
+      <c r="BG1" t="n">
+        <v>2.4299899225143924</v>
+      </c>
+      <c r="BH1" t="n">
+        <v>2.165742745875193</v>
+      </c>
+      <c r="BI1" t="n">
+        <v>1.9302287228869675</v>
+      </c>
+      <c r="BJ1" t="n">
+        <v>1.7203241622118555</v>
+      </c>
+      <c r="BK1" t="n">
+        <v>1.5332447768299975</v>
+      </c>
+      <c r="BL1" t="n">
+        <v>1.3665088595324848</v>
+      </c>
+      <c r="BM1" t="n">
+        <v>1.2179044382978603</v>
+      </c>
+      <c r="BN1" t="n">
+        <v>1.085459985900208</v>
+      </c>
+      <c r="BO1" t="n">
+        <v>0.9674183023220168</v>
+      </c>
+      <c r="BP1" t="n">
+        <v>0.8622132285539926</v>
+      </c>
+      <c r="BQ1" t="n">
+        <v>0.7684488864455454</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-457.39442640569376</v>
+        <v>-37259.11937735638</v>
       </c>
       <c r="B2" t="n">
-        <v>-364.1289032542333</v>
+        <v>-29595.981061347527</v>
       </c>
       <c r="C2" t="n">
-        <v>-290.21971913721063</v>
+        <v>-23508.93665906671</v>
       </c>
       <c r="D2" t="n">
-        <v>-231.70459188246838</v>
+        <v>-18673.82885949347</v>
       </c>
       <c r="E2" t="n">
-        <v>-185.4283455453924</v>
+        <v>-14833.170540832545</v>
       </c>
       <c r="F2" t="n">
-        <v>-148.87862153023207</v>
+        <v>-11782.432642268199</v>
       </c>
       <c r="G2" t="n">
-        <v>-120.06690948324125</v>
+        <v>-9359.152245500167</v>
       </c>
       <c r="H2" t="n">
-        <v>-97.4438642577065</v>
+        <v>-7434.280831607708</v>
       </c>
       <c r="I2" t="n">
-        <v>-79.82167684627002</v>
+        <v>-5905.311976216212</v>
       </c>
       <c r="J2" t="n">
-        <v>-66.27982299190117</v>
+        <v>-4690.822507365539</v>
       </c>
       <c r="K2" t="n">
-        <v>-56.0656843408163</v>
+        <v>-3726.136422216801</v>
       </c>
       <c r="L2" t="n">
-        <v>-48.51858374914263</v>
+        <v>-2959.8806491302184</v>
       </c>
       <c r="M2" t="n">
-        <v>-43.024920336060525</v>
+        <v>-2351.2492344650063</v>
       </c>
       <c r="N2" t="n">
-        <v>-39.000141451939704</v>
+        <v>-1867.8302572896998</v>
       </c>
       <c r="O2" t="n">
-        <v>-35.89901945901458</v>
+        <v>-1483.8797378910403</v>
       </c>
       <c r="P2" t="n">
-        <v>-33.24885528273918</v>
+        <v>-1178.9506011257</v>
       </c>
       <c r="Q2" t="n">
-        <v>-30.692189831570293</v>
+        <v>-936.8036468468005</v>
       </c>
       <c r="R2" t="n">
-        <v>-28.0410357961712</v>
+        <v>-744.5424670375505</v>
       </c>
       <c r="S2" t="n">
-        <v>-25.315834093615674</v>
+        <v>-591.9261233561157</v>
       </c>
       <c r="T2" t="n">
-        <v>-22.679137465132374</v>
+        <v>-470.8227878433385</v>
       </c>
       <c r="U2" t="n">
-        <v>-20.278619635130028</v>
+        <v>-374.77497507244317</v>
       </c>
       <c r="V2" t="n">
-        <v>-18.15282150748908</v>
+        <v>-298.6529608432769</v>
       </c>
       <c r="W2" t="n">
-        <v>-16.261943285447362</v>
+        <v>-238.3781283487726</v>
       </c>
       <c r="X2" t="n">
-        <v>-14.561507635680993</v>
+        <v>-190.7031745927314</v>
       </c>
       <c r="Y2" t="n">
-        <v>-13.029969050361373</v>
+        <v>-153.04182216020908</v>
       </c>
       <c r="Z2" t="n">
-        <v>-11.654233684563636</v>
+        <v>-123.34442629083661</v>
       </c>
       <c r="AA2" t="n">
-        <v>-10.419958556578493</v>
+        <v>-100.01014938568399</v>
       </c>
       <c r="AB2" t="n">
-        <v>-9.313223944600066</v>
+        <v>-81.810213938278</v>
       </c>
       <c r="AC2" t="n">
-        <v>-8.321495550682464</v>
+        <v>-67.79595095241112</v>
       </c>
       <c r="AD2" t="n">
-        <v>-7.43334535287737</v>
+        <v>-57.19835759093004</v>
       </c>
       <c r="AE2" t="n">
-        <v>-6.63836893626063</v>
+        <v>-49.34818834495669</v>
       </c>
       <c r="AF2" t="n">
-        <v>-5.927122467100961</v>
+        <v>-43.627430285707334</v>
       </c>
       <c r="AG2" t="n">
-        <v>-5.291051225297884</v>
+        <v>-39.44788936417905</v>
       </c>
       <c r="AH2" t="n">
-        <v>-4.7224202055563165</v>
+        <v>-36.25785128242519</v>
       </c>
       <c r="AI2" t="n">
-        <v>-4.214246937183262</v>
+        <v>-33.5732075816607</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-3.760237322408661</v>
+        <v>-31.019215179277452</v>
       </c>
       <c r="AK2" t="n">
-        <v>-3.354724978540152</v>
+        <v>-28.383176872571113</v>
       </c>
       <c r="AL2" t="n">
-        <v>-2.9926143703191332</v>
+        <v>-25.6598907874666</v>
       </c>
       <c r="AM2" t="n">
-        <v>-2.6693278640519487</v>
+        <v>-23.002045524303842</v>
       </c>
       <c r="AN2" t="n">
-        <v>-2.3807567186754364</v>
+        <v>-20.56709202441511</v>
       </c>
       <c r="AO2" t="n">
-        <v>-2.1232159433325664</v>
+        <v>-18.407860235637855</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.8934028900136475</v>
+        <v>-16.490142966496627</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.6883594081352666</v>
+        <v>-14.767186343839448</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.5054373612814926</v>
+        <v>-13.214990199698857</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.3422672912186897</v>
+        <v>-11.820296985374762</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.1967300078944807</v>
+        <v>-10.568910796469318</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.0669308841895657</v>
+        <v>-9.446746013496922</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.9511766389255052</v>
+        <v>-8.441109612864732</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.8479543996449344</v>
+        <v>-7.5404408368394895</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.7559128468888258</v>
+        <v>-6.7342085755985694</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-6.012851378987893</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-5.367705823051556</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-4.790936884067861</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-4.275470424683275</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-3.814928618563648</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-3.4035688293760624</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-3.036226253165365</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>-2.7082604730002013</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-2.4155059539408232</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>-2.154226417262842</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1.9210729690503447</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>-1.7130458143959157</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>-1.5274593601027278</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-1.3619104923792549</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1.2142498086486226</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>-1.082555581942436</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>-0.9651102405757529</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>-0.8603791534638704</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>-0.766991521422552</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0570070979002617</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.3306930959934447</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>1.6752433538452025</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1090064290950132</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>2.6550817872249857</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>3.342549932329409</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>4.208021050000366</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>5.297584633210235</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6692639158786475</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>8.396105821661507</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>10.570070979002617</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>13.306930959934446</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>16.752433538452024</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>21.09006429095013</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>26.55081787224986</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>33.42549932329408</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>42.080210500003666</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>52.97584633210235</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>66.69263915878648</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>83.96105821661507</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>105.70070979002617</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>133.06930959934445</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>167.52433538452024</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>210.90064290950133</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>265.5081787224986</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>334.2549932329409</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>420.80210500003665</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>529.7584633210236</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>666.9263915878647</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>839.6105821661507</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1057.0070979002617</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1330.6930959934446</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>1675.2433538452026</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2109.006429095013</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>2655.081787224986</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3342.5499323294084</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>4208.021050000367</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>5297.584633210236</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>6669.263915878648</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>8396.105821661507</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>10570.070979002618</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>13306.930959934445</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16752.433538452024</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>21090.064290950133</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>26550.817872249856</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>33425.49932329408</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>42080.21050000367</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>52975.84633210235</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>66692.63915878648</v>
+        <v>#NUM!</v>
       </c>
       <c r="AX3" t="n">
-        <v>83961.05821661507</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -1473,458 +1986,629 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>50.106594928598824</v>
+        <v>50.16665670938841</v>
       </c>
       <c r="B1" t="n">
-        <v>50.076915792148455</v>
+        <v>50.16665088558849</v>
       </c>
       <c r="C1" t="n">
-        <v>50.036869339127314</v>
+        <v>50.16664165570585</v>
       </c>
       <c r="D1" t="n">
-        <v>49.987884229838926</v>
+        <v>50.16662702787583</v>
       </c>
       <c r="E1" t="n">
-        <v>49.93712718987089</v>
+        <v>50.166603845704394</v>
       </c>
       <c r="F1" t="n">
-        <v>49.898564087487216</v>
+        <v>50.16656710789676</v>
       </c>
       <c r="G1" t="n">
-        <v>49.88587041126517</v>
+        <v>50.166508891080774</v>
       </c>
       <c r="H1" t="n">
-        <v>49.892890144720944</v>
+        <v>50.16641664545771</v>
       </c>
       <c r="I1" t="n">
-        <v>49.87174385823501</v>
+        <v>50.16627050077153</v>
       </c>
       <c r="J1" t="n">
-        <v>49.72916718935001</v>
+        <v>50.166039014574736</v>
       </c>
       <c r="K1" t="n">
-        <v>49.34304869030042</v>
+        <v>50.16567247885993</v>
       </c>
       <c r="L1" t="n">
-        <v>48.57796330654449</v>
+        <v>50.16509242494397</v>
       </c>
       <c r="M1" t="n">
-        <v>47.28909231204832</v>
+        <v>50.164175272803554</v>
       </c>
       <c r="N1" t="n">
-        <v>45.32947330006362</v>
+        <v>50.16272712279267</v>
       </c>
       <c r="O1" t="n">
-        <v>42.5869399943549</v>
+        <v>50.16044555616216</v>
       </c>
       <c r="P1" t="n">
-        <v>39.07069856983862</v>
+        <v>50.1568634178917</v>
       </c>
       <c r="Q1" t="n">
-        <v>35.01996261339819</v>
+        <v>50.15127027552633</v>
       </c>
       <c r="R1" t="n">
-        <v>30.900074656034842</v>
+        <v>50.142613268037515</v>
       </c>
       <c r="S1" t="n">
-        <v>27.170259760342354</v>
+        <v>50.129399036687836</v>
       </c>
       <c r="T1" t="n">
-        <v>24.020389259092372</v>
+        <v>50.109669728976044</v>
       </c>
       <c r="U1" t="n">
-        <v>21.36974294155092</v>
+        <v>50.08123430929038</v>
       </c>
       <c r="V1" t="n">
-        <v>19.058345597634297</v>
+        <v>50.04250717515779</v>
       </c>
       <c r="W1" t="n">
-        <v>16.989539544170338</v>
+        <v>49.9944043030639</v>
       </c>
       <c r="X1" t="n">
-        <v>15.135865964052456</v>
+        <v>49.94322064795346</v>
       </c>
       <c r="Y1" t="n">
-        <v>13.484598498228026</v>
+        <v>49.90221055979934</v>
       </c>
       <c r="Z1" t="n">
-        <v>12.015128537489145</v>
+        <v>49.88592524011293</v>
       </c>
       <c r="AA1" t="n">
-        <v>10.706355230521416</v>
+        <v>49.892085339012006</v>
       </c>
       <c r="AB1" t="n">
-        <v>9.540483002380999</v>
+        <v>49.8788302199176</v>
       </c>
       <c r="AC1" t="n">
-        <v>8.50184642062333</v>
+        <v>49.75798220701391</v>
       </c>
       <c r="AD1" t="n">
-        <v>7.576479556516533</v>
+        <v>49.409986757762624</v>
       </c>
       <c r="AE1" t="n">
-        <v>6.751974000927535</v>
+        <v>48.70070367536115</v>
       </c>
       <c r="AF1" t="n">
-        <v>6.0172962443357685</v>
+        <v>47.48641629977209</v>
       </c>
       <c r="AG1" t="n">
-        <v>5.362630937572372</v>
+        <v>45.61926841583871</v>
       </c>
       <c r="AH1" t="n">
-        <v>4.779243356793634</v>
+        <v>42.97899837652871</v>
       </c>
       <c r="AI1" t="n">
-        <v>4.259358177892051</v>
+        <v>39.553083530702764</v>
       </c>
       <c r="AJ1" t="n">
-        <v>3.796052462811548</v>
+        <v>35.54763882652861</v>
       </c>
       <c r="AK1" t="n">
-        <v>3.3831610303602706</v>
+        <v>31.407777145002587</v>
       </c>
       <c r="AL1" t="n">
-        <v>3.015192659905609</v>
+        <v>27.611148299144013</v>
       </c>
       <c r="AM1" t="n">
-        <v>2.68725579990385</v>
+        <v>24.38829068381981</v>
       </c>
       <c r="AN1" t="n">
-        <v>2.39499263836123</v>
+        <v>21.683586084946956</v>
       </c>
       <c r="AO1" t="n">
-        <v>2.134520546582269</v>
+        <v>19.33646340752699</v>
       </c>
       <c r="AP1" t="n">
-        <v>1.9023800370109643</v>
+        <v>17.239368372894365</v>
       </c>
       <c r="AQ1" t="n">
-        <v>1.6954884853886067</v>
+        <v>15.359031553972427</v>
       </c>
       <c r="AR1" t="n">
-        <v>1.5110989605884153</v>
+        <v>13.683150767141797</v>
       </c>
       <c r="AS1" t="n">
-        <v>1.3467635852868984</v>
+        <v>12.19189861087199</v>
       </c>
       <c r="AT1" t="n">
-        <v>1.2003009194158527</v>
+        <v>10.863820346764859</v>
       </c>
       <c r="AU1" t="n">
-        <v>1.069766917945999</v>
+        <v>9.680757020484403</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.9534290664506512</v>
+        <v>8.626817035357204</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.8497433432658166</v>
+        <v>7.687825003623605</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.7573336968600339</v>
+        <v>6.851185834243388</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>6.105701074597749</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>5.441409102521873</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>4.849445390644515</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>4.321919332947477</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>3.851805539312989</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>3.432847729177035</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>3.059473641277811</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>2.7267196054344507</v>
+      </c>
+      <c r="BG1" t="n">
+        <v>2.4301636118609804</v>
+      </c>
+      <c r="BH1" t="n">
+        <v>2.165865871323875</v>
+      </c>
+      <c r="BI1" t="n">
+        <v>1.930315991754205</v>
+      </c>
+      <c r="BJ1" t="n">
+        <v>1.7203860086535527</v>
+      </c>
+      <c r="BK1" t="n">
+        <v>1.533288601653196</v>
+      </c>
+      <c r="BL1" t="n">
+        <v>1.3665399109346483</v>
+      </c>
+      <c r="BM1" t="n">
+        <v>1.2179264372879215</v>
+      </c>
+      <c r="BN1" t="n">
+        <v>1.0854755702649732</v>
+      </c>
+      <c r="BO1" t="n">
+        <v>0.967429341688858</v>
+      </c>
+      <c r="BP1" t="n">
+        <v>0.8622210479167624</v>
+      </c>
+      <c r="BQ1" t="n">
+        <v>0.7684544247107878</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-456.3582551355337</v>
+        <v>-37259.106385364474</v>
       </c>
       <c r="B2" t="n">
-        <v>-362.84340444503124</v>
+        <v>-29595.964705434704</v>
       </c>
       <c r="C2" t="n">
-        <v>-288.6382765634545</v>
+        <v>-23508.916068264127</v>
       </c>
       <c r="D2" t="n">
-        <v>-229.78415278385572</v>
+        <v>-18673.802937351913</v>
       </c>
       <c r="E2" t="n">
-        <v>-183.14091981982136</v>
+        <v>-14833.137907075265</v>
       </c>
       <c r="F2" t="n">
-        <v>-146.22709385945782</v>
+        <v>-11782.391559371425</v>
       </c>
       <c r="G2" t="n">
-        <v>-117.09772844066951</v>
+        <v>-9359.100526333808</v>
       </c>
       <c r="H2" t="n">
-        <v>-94.2430826834898</v>
+        <v>-7434.215723302217</v>
       </c>
       <c r="I2" t="n">
-        <v>-76.48949701240042</v>
+        <v>-5905.230014239605</v>
       </c>
       <c r="J2" t="n">
-        <v>-62.90326320432368</v>
+        <v>-4690.7193323757365</v>
       </c>
       <c r="K2" t="n">
-        <v>-52.717293132513575</v>
+        <v>-3726.006550606282</v>
       </c>
       <c r="L2" t="n">
-        <v>-45.28529567375365</v>
+        <v>-2959.717186380056</v>
       </c>
       <c r="M2" t="n">
-        <v>-40.043414204019165</v>
+        <v>-2351.04351870656</v>
       </c>
       <c r="N2" t="n">
-        <v>-36.46200299454259</v>
+        <v>-1867.5714193960082</v>
       </c>
       <c r="O2" t="n">
-        <v>-33.99253733138297</v>
+        <v>-1483.5541652207276</v>
       </c>
       <c r="P2" t="n">
-        <v>-32.045431390946916</v>
+        <v>-1178.5412973056762</v>
       </c>
       <c r="Q2" t="n">
-        <v>-30.068321040029655</v>
+        <v>-936.2894949456229</v>
       </c>
       <c r="R2" t="n">
-        <v>-27.746887208451405</v>
+        <v>-743.8974384551466</v>
       </c>
       <c r="S2" t="n">
-        <v>-25.14140773246197</v>
+        <v>-591.1185492503344</v>
       </c>
       <c r="T2" t="n">
-        <v>-22.53685948753701</v>
+        <v>-469.814958501324</v>
       </c>
       <c r="U2" t="n">
-        <v>-20.16065334549392</v>
+        <v>-373.52360819109725</v>
       </c>
       <c r="V2" t="n">
-        <v>-18.065635303055746</v>
+        <v>-297.11153214998825</v>
       </c>
       <c r="W2" t="n">
-        <v>-16.201567096003608</v>
+        <v>-236.50261494544222</v>
       </c>
       <c r="X2" t="n">
-        <v>-14.51937274783911</v>
+        <v>-188.46285735260423</v>
       </c>
       <c r="Y2" t="n">
-        <v>-13.000081288117576</v>
+        <v>-150.43478946887342</v>
       </c>
       <c r="Z2" t="n">
-        <v>-11.633043880154718</v>
+        <v>-120.4113551490927</v>
       </c>
       <c r="AA2" t="n">
-        <v>-10.404960961023587</v>
+        <v>-96.83312318211487</v>
       </c>
       <c r="AB2" t="n">
-        <v>-9.302606527256229</v>
+        <v>-78.48942741142717</v>
       </c>
       <c r="AC2" t="n">
-        <v>-8.31397885554819</v>
+        <v>-64.42088305751237</v>
       </c>
       <c r="AD2" t="n">
-        <v>-7.428023910116342</v>
+        <v>-53.842275599267055</v>
       </c>
       <c r="AE2" t="n">
-        <v>-6.634601624966069</v>
+        <v>-46.09405562272355</v>
       </c>
       <c r="AF2" t="n">
-        <v>-5.9244554059284456</v>
+        <v>-40.60433192506488</v>
       </c>
       <c r="AG2" t="n">
-        <v>-5.289163086052977</v>
+        <v>-36.8421597460295</v>
       </c>
       <c r="AH2" t="n">
-        <v>-4.721083503065718</v>
+        <v>-34.263838222197954</v>
       </c>
       <c r="AI2" t="n">
-        <v>-4.213300623150979</v>
+        <v>-32.283490304691625</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-3.759567382807697</v>
+        <v>-30.33472632231032</v>
       </c>
       <c r="AK2" t="n">
-        <v>-3.3542506973375326</v>
+        <v>-28.06116680083932</v>
       </c>
       <c r="AL2" t="n">
-        <v>-2.992278604797582</v>
+        <v>-25.47762242981291</v>
       </c>
       <c r="AM2" t="n">
-        <v>-2.669090160194463</v>
+        <v>-22.857034314965933</v>
       </c>
       <c r="AN2" t="n">
-        <v>-2.3805884371955237</v>
+        <v>-20.44555341449771</v>
       </c>
       <c r="AO2" t="n">
-        <v>-2.1230968091501885</v>
+        <v>-18.316776030739224</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.8933185494623919</v>
+        <v>-16.42685634061712</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.6882996995930086</v>
+        <v>-14.72314530296097</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.5053950908684315</v>
+        <v>-13.18377960493659</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.3422373660568172</v>
+        <v>-11.798160264741565</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.1967088225017137</v>
+        <v>-10.553242445514844</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.066915886079779</v>
+        <v>-9.435654035840631</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.9511660210767642</v>
+        <v>-8.433256914217145</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.8479468827836069</v>
+        <v>-7.534881520217762</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.755907525358501</v>
+        <v>-6.7302728608057825</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-6.010065096446742</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-5.365733281127295</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-4.789540428848718</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-4.274481808854661</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-3.814228731532127</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-3.4030733469900682</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-3.035875478342305</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>-2.7080121433644115</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-2.4153301499826574</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>-2.1541019575720446</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1.9209848583270257</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>-1.7129834367758237</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>-1.5274152001270576</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-1.3618792295093947</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1.2142276762310729</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>-1.0825399133904203</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>-0.9650991480902491</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>-0.860371300585441</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>-0.7669859620103332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0570070979002617</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.3306930959934447</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>1.6752433538452025</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1090064290950132</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>2.6550817872249857</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>3.342549932329409</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>4.208021050000366</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>5.297584633210235</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6692639158786475</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>8.396105821661507</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>10.570070979002617</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>13.306930959934446</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>16.752433538452024</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>21.09006429095013</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>26.55081787224986</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>33.42549932329408</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>42.080210500003666</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>52.97584633210235</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>66.69263915878648</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>83.96105821661507</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>105.70070979002617</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>133.06930959934445</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>167.52433538452024</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>210.90064290950133</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>265.5081787224986</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>334.2549932329409</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>420.80210500003665</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>529.7584633210236</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>666.9263915878647</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>839.6105821661507</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1057.0070979002617</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1330.6930959934446</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>1675.2433538452026</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2109.006429095013</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>2655.081787224986</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3342.5499323294084</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>4208.021050000367</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>5297.584633210236</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>6669.263915878648</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>8396.105821661507</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>10570.070979002618</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>13306.930959934445</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16752.433538452024</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>21090.064290950133</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>26550.817872249856</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>33425.49932329408</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>42080.21050000367</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>52975.84633210235</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>66692.63915878648</v>
+        <v>#NUM!</v>
       </c>
       <c r="AX3" t="n">
-        <v>83961.05821661507</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>

--- a/lin_R1_by_R2 (100 by 1)100.xlsx
+++ b/lin_R1_by_R2 (100 by 1)100.xlsx
@@ -484,211 +484,211 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>0.012924577234417967</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>0.016271078717105158</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>0.020484074474266922</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>0.025787921892738874</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>0.032465070188132106</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>0.04087110185552075</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>0.05145366873394282</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>0.06477633109919963</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>0.08154856930357521</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>0.1026635661917286</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>0.12924577234417967</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>0.16271078717105159</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>0.20484074474266922</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>0.25787921892738874</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>0.32465070188132106</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>0.40871101855520753</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>0.5145366873394281</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>0.6477633109919962</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>0.8154856930357521</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>1.026635661917286</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>1.2924577234417967</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>1.6271078717105159</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>2.0484074474266922</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>2.578792189273887</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>3.246507018813211</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>4.087110185552075</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>5.1453668733942814</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>6.477633109919963</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>8.154856930357521</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>10.26635661917286</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>12.924577234417967</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>16.27107871710516</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>20.484074474266922</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>25.787921892738872</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>32.46507018813211</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>40.871101855520756</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>51.45366873394282</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>64.77633109919962</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>81.5485693035752</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>102.6635661917286</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>129.24577234417967</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>162.71078717105158</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>204.84074474266922</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>257.87921892738876</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>324.6507018813211</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>408.71101855520754</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>514.5366873394281</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>647.7633109919963</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>815.4856930357521</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>1026.6356619172861</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>1292.4577234417968</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>1627.1078717105158</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>2048.407447426692</v>
       </c>
       <c r="BB3" t="n">
-        <v>#NUM!</v>
+        <v>2578.7921892738873</v>
       </c>
       <c r="BC3" t="n">
-        <v>#NUM!</v>
+        <v>3246.507018813211</v>
       </c>
       <c r="BD3" t="n">
-        <v>#NUM!</v>
+        <v>4087.1101855520756</v>
       </c>
       <c r="BE3" t="n">
-        <v>#NUM!</v>
+        <v>5145.366873394281</v>
       </c>
       <c r="BF3" t="n">
-        <v>#NUM!</v>
+        <v>6477.633109919962</v>
       </c>
       <c r="BG3" t="n">
-        <v>#NUM!</v>
+        <v>8154.856930357521</v>
       </c>
       <c r="BH3" t="n">
-        <v>#NUM!</v>
+        <v>10266.35661917286</v>
       </c>
       <c r="BI3" t="n">
-        <v>#NUM!</v>
+        <v>12924.577234417968</v>
       </c>
       <c r="BJ3" t="n">
-        <v>#NUM!</v>
+        <v>16271.078717105158</v>
       </c>
       <c r="BK3" t="n">
-        <v>#NUM!</v>
+        <v>20484.074474266923</v>
       </c>
       <c r="BL3" t="n">
-        <v>#NUM!</v>
+        <v>25787.921892738872</v>
       </c>
       <c r="BM3" t="n">
-        <v>#NUM!</v>
+        <v>32465.070188132107</v>
       </c>
       <c r="BN3" t="n">
-        <v>#NUM!</v>
+        <v>40871.101855520756</v>
       </c>
       <c r="BO3" t="n">
-        <v>#NUM!</v>
+        <v>51453.66873394282</v>
       </c>
       <c r="BP3" t="n">
-        <v>#NUM!</v>
+        <v>64776.331099199626</v>
       </c>
       <c r="BQ3" t="n">
-        <v>#NUM!</v>
+        <v>81548.5693035752</v>
       </c>
     </row>
   </sheetData>
@@ -1124,211 +1124,211 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>0.012924577234417967</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>0.016271078717105158</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>0.020484074474266922</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>0.025787921892738874</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>0.032465070188132106</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>0.04087110185552075</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>0.05145366873394282</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>0.06477633109919963</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>0.08154856930357521</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>0.1026635661917286</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>0.12924577234417967</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>0.16271078717105159</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>0.20484074474266922</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>0.25787921892738874</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>0.32465070188132106</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>0.40871101855520753</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>0.5145366873394281</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>0.6477633109919962</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>0.8154856930357521</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>1.026635661917286</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>1.2924577234417967</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>1.6271078717105159</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>2.0484074474266922</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>2.578792189273887</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>3.246507018813211</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>4.087110185552075</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>5.1453668733942814</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>6.477633109919963</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>8.154856930357521</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>10.26635661917286</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>12.924577234417967</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>16.27107871710516</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>20.484074474266922</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>25.787921892738872</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>32.46507018813211</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>40.871101855520756</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>51.45366873394282</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>64.77633109919962</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>81.5485693035752</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>102.6635661917286</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>129.24577234417967</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>162.71078717105158</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>204.84074474266922</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>257.87921892738876</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>324.6507018813211</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>408.71101855520754</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>514.5366873394281</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>647.7633109919963</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>815.4856930357521</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>1026.6356619172861</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>1292.4577234417968</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>1627.1078717105158</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>2048.407447426692</v>
       </c>
       <c r="BB3" t="n">
-        <v>#NUM!</v>
+        <v>2578.7921892738873</v>
       </c>
       <c r="BC3" t="n">
-        <v>#NUM!</v>
+        <v>3246.507018813211</v>
       </c>
       <c r="BD3" t="n">
-        <v>#NUM!</v>
+        <v>4087.1101855520756</v>
       </c>
       <c r="BE3" t="n">
-        <v>#NUM!</v>
+        <v>5145.366873394281</v>
       </c>
       <c r="BF3" t="n">
-        <v>#NUM!</v>
+        <v>6477.633109919962</v>
       </c>
       <c r="BG3" t="n">
-        <v>#NUM!</v>
+        <v>8154.856930357521</v>
       </c>
       <c r="BH3" t="n">
-        <v>#NUM!</v>
+        <v>10266.35661917286</v>
       </c>
       <c r="BI3" t="n">
-        <v>#NUM!</v>
+        <v>12924.577234417968</v>
       </c>
       <c r="BJ3" t="n">
-        <v>#NUM!</v>
+        <v>16271.078717105158</v>
       </c>
       <c r="BK3" t="n">
-        <v>#NUM!</v>
+        <v>20484.074474266923</v>
       </c>
       <c r="BL3" t="n">
-        <v>#NUM!</v>
+        <v>25787.921892738872</v>
       </c>
       <c r="BM3" t="n">
-        <v>#NUM!</v>
+        <v>32465.070188132107</v>
       </c>
       <c r="BN3" t="n">
-        <v>#NUM!</v>
+        <v>40871.101855520756</v>
       </c>
       <c r="BO3" t="n">
-        <v>#NUM!</v>
+        <v>51453.66873394282</v>
       </c>
       <c r="BP3" t="n">
-        <v>#NUM!</v>
+        <v>64776.331099199626</v>
       </c>
       <c r="BQ3" t="n">
-        <v>#NUM!</v>
+        <v>81548.5693035752</v>
       </c>
     </row>
   </sheetData>
@@ -1764,211 +1764,211 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>0.012924577234417967</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>0.016271078717105158</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>0.020484074474266922</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>0.025787921892738874</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>0.032465070188132106</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>0.04087110185552075</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>0.05145366873394282</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>0.06477633109919963</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>0.08154856930357521</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>0.1026635661917286</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>0.12924577234417967</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>0.16271078717105159</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>0.20484074474266922</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>0.25787921892738874</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>0.32465070188132106</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>0.40871101855520753</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>0.5145366873394281</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>0.6477633109919962</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>0.8154856930357521</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>1.026635661917286</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>1.2924577234417967</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>1.6271078717105159</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>2.0484074474266922</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>2.578792189273887</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>3.246507018813211</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>4.087110185552075</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>5.1453668733942814</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>6.477633109919963</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>8.154856930357521</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>10.26635661917286</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>12.924577234417967</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>16.27107871710516</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>20.484074474266922</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>25.787921892738872</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>32.46507018813211</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>40.871101855520756</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>51.45366873394282</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>64.77633109919962</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>81.5485693035752</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>102.6635661917286</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>129.24577234417967</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>162.71078717105158</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>204.84074474266922</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>257.87921892738876</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>324.6507018813211</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>408.71101855520754</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>514.5366873394281</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>647.7633109919963</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>815.4856930357521</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>1026.6356619172861</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>1292.4577234417968</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>1627.1078717105158</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>2048.407447426692</v>
       </c>
       <c r="BB3" t="n">
-        <v>#NUM!</v>
+        <v>2578.7921892738873</v>
       </c>
       <c r="BC3" t="n">
-        <v>#NUM!</v>
+        <v>3246.507018813211</v>
       </c>
       <c r="BD3" t="n">
-        <v>#NUM!</v>
+        <v>4087.1101855520756</v>
       </c>
       <c r="BE3" t="n">
-        <v>#NUM!</v>
+        <v>5145.366873394281</v>
       </c>
       <c r="BF3" t="n">
-        <v>#NUM!</v>
+        <v>6477.633109919962</v>
       </c>
       <c r="BG3" t="n">
-        <v>#NUM!</v>
+        <v>8154.856930357521</v>
       </c>
       <c r="BH3" t="n">
-        <v>#NUM!</v>
+        <v>10266.35661917286</v>
       </c>
       <c r="BI3" t="n">
-        <v>#NUM!</v>
+        <v>12924.577234417968</v>
       </c>
       <c r="BJ3" t="n">
-        <v>#NUM!</v>
+        <v>16271.078717105158</v>
       </c>
       <c r="BK3" t="n">
-        <v>#NUM!</v>
+        <v>20484.074474266923</v>
       </c>
       <c r="BL3" t="n">
-        <v>#NUM!</v>
+        <v>25787.921892738872</v>
       </c>
       <c r="BM3" t="n">
-        <v>#NUM!</v>
+        <v>32465.070188132107</v>
       </c>
       <c r="BN3" t="n">
-        <v>#NUM!</v>
+        <v>40871.101855520756</v>
       </c>
       <c r="BO3" t="n">
-        <v>#NUM!</v>
+        <v>51453.66873394282</v>
       </c>
       <c r="BP3" t="n">
-        <v>#NUM!</v>
+        <v>64776.331099199626</v>
       </c>
       <c r="BQ3" t="n">
-        <v>#NUM!</v>
+        <v>81548.5693035752</v>
       </c>
     </row>
   </sheetData>
@@ -2404,211 +2404,211 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>0.012924577234417967</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>0.016271078717105158</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>0.020484074474266922</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>0.025787921892738874</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>0.032465070188132106</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>0.04087110185552075</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>0.05145366873394282</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>0.06477633109919963</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>0.08154856930357521</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>0.1026635661917286</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>0.12924577234417967</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>0.16271078717105159</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>0.20484074474266922</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>0.25787921892738874</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>0.32465070188132106</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>0.40871101855520753</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>0.5145366873394281</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>0.6477633109919962</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>0.8154856930357521</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>1.026635661917286</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>1.2924577234417967</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>1.6271078717105159</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>2.0484074474266922</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>2.578792189273887</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>3.246507018813211</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>4.087110185552075</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>5.1453668733942814</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>6.477633109919963</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>8.154856930357521</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>10.26635661917286</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>12.924577234417967</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>16.27107871710516</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>20.484074474266922</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>25.787921892738872</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>32.46507018813211</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>40.871101855520756</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>51.45366873394282</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>64.77633109919962</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>81.5485693035752</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>102.6635661917286</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>129.24577234417967</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>162.71078717105158</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>204.84074474266922</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>257.87921892738876</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>324.6507018813211</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>408.71101855520754</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>514.5366873394281</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>647.7633109919963</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>815.4856930357521</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>1026.6356619172861</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>1292.4577234417968</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>1627.1078717105158</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>2048.407447426692</v>
       </c>
       <c r="BB3" t="n">
-        <v>#NUM!</v>
+        <v>2578.7921892738873</v>
       </c>
       <c r="BC3" t="n">
-        <v>#NUM!</v>
+        <v>3246.507018813211</v>
       </c>
       <c r="BD3" t="n">
-        <v>#NUM!</v>
+        <v>4087.1101855520756</v>
       </c>
       <c r="BE3" t="n">
-        <v>#NUM!</v>
+        <v>5145.366873394281</v>
       </c>
       <c r="BF3" t="n">
-        <v>#NUM!</v>
+        <v>6477.633109919962</v>
       </c>
       <c r="BG3" t="n">
-        <v>#NUM!</v>
+        <v>8154.856930357521</v>
       </c>
       <c r="BH3" t="n">
-        <v>#NUM!</v>
+        <v>10266.35661917286</v>
       </c>
       <c r="BI3" t="n">
-        <v>#NUM!</v>
+        <v>12924.577234417968</v>
       </c>
       <c r="BJ3" t="n">
-        <v>#NUM!</v>
+        <v>16271.078717105158</v>
       </c>
       <c r="BK3" t="n">
-        <v>#NUM!</v>
+        <v>20484.074474266923</v>
       </c>
       <c r="BL3" t="n">
-        <v>#NUM!</v>
+        <v>25787.921892738872</v>
       </c>
       <c r="BM3" t="n">
-        <v>#NUM!</v>
+        <v>32465.070188132107</v>
       </c>
       <c r="BN3" t="n">
-        <v>#NUM!</v>
+        <v>40871.101855520756</v>
       </c>
       <c r="BO3" t="n">
-        <v>#NUM!</v>
+        <v>51453.66873394282</v>
       </c>
       <c r="BP3" t="n">
-        <v>#NUM!</v>
+        <v>64776.331099199626</v>
       </c>
       <c r="BQ3" t="n">
-        <v>#NUM!</v>
+        <v>81548.5693035752</v>
       </c>
     </row>
   </sheetData>
